--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9780"/>
+    <workbookView windowWidth="25600" windowHeight="9140" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="2" r:id="rId1"/>
-    <sheet name="main_page" sheetId="1" r:id="rId2"/>
+    <sheet name="login" sheetId="2" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId2"/>
+    <sheet name="myzone" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>元素变量名</t>
   </si>
@@ -23,6 +24,9 @@
     <t>元素名称</t>
   </si>
   <si>
+    <t>所属页面</t>
+  </si>
+  <si>
     <t>定位方式</t>
   </si>
   <si>
@@ -38,6 +42,9 @@
     <t>用户名输入框</t>
   </si>
   <si>
+    <t>login_page</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -63,9 +70,6 @@
   </si>
   <si>
     <t>submit</t>
-  </si>
-  <si>
-    <t>所属页面</t>
   </si>
   <si>
     <t>myzone_link</t>
@@ -98,8 +102,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -112,17 +116,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,48 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,72 +258,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -270,31 +274,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,145 +394,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,7 +490,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,26 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,148 +579,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,22 +1053,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.5357142857143" customWidth="1"/>
-    <col min="2" max="2" width="22.3125" customWidth="1"/>
-    <col min="3" max="3" width="19.6339285714286" customWidth="1"/>
-    <col min="4" max="4" width="22.3214285714286" customWidth="1"/>
-    <col min="5" max="5" width="10.5625" customWidth="1"/>
+    <col min="2" max="3" width="22.3125" customWidth="1"/>
+    <col min="4" max="4" width="19.6339285714286" customWidth="1"/>
+    <col min="5" max="5" width="22.3214285714286" customWidth="1"/>
+    <col min="6" max="6" width="10.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,74 +1084,76 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>5</v>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1162,7 +1168,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1183,33 +1189,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -1217,19 +1223,104 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="22.3125" customWidth="1"/>
+    <col min="3" max="3" width="26.4821428571429" customWidth="1"/>
+    <col min="4" max="4" width="19.6339285714286" customWidth="1"/>
+    <col min="5" max="5" width="22.3214285714286" customWidth="1"/>
+    <col min="6" max="6" width="10.5625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9140" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="9140"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>元素变量名</t>
   </si>
@@ -72,6 +72,24 @@
     <t>submit</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>bug_link</t>
+  </si>
+  <si>
+    <t>bug链接[%s]</t>
+  </si>
+  <si>
+    <t>bug_page</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//a[text()=%s]</t>
+  </si>
+  <si>
     <t>myzone_link</t>
   </si>
   <si>
@@ -81,9 +99,6 @@
     <t>main_page</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
     <t>//a[@text='我的地盘']</t>
   </si>
   <si>
@@ -94,6 +109,21 @@
   </si>
   <si>
     <t>userNav</t>
+  </si>
+  <si>
+    <t>firstpage_link</t>
+  </si>
+  <si>
+    <t>首页链接</t>
+  </si>
+  <si>
+    <t>first_page</t>
+  </si>
+  <si>
+    <t>calendar_link</t>
+  </si>
+  <si>
+    <t>日程链接</t>
   </si>
 </sst>
 </file>
@@ -102,9 +132,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,13 +146,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,27 +153,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -160,15 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,68 +214,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,13 +304,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,163 +406,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,8 +510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +521,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,25 +555,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -549,28 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,152 +609,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +762,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,13 +1086,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.5357142857143" customWidth="1"/>
     <col min="2" max="3" width="22.3125" customWidth="1"/>
@@ -1144,8 +1177,28 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2">
-        <v>3</v>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1221,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1203,19 +1256,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -1223,19 +1276,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -1252,8 +1305,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1288,19 +1341,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -1308,19 +1361,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9140"/>
+    <workbookView windowWidth="25600" windowHeight="9140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>元素变量名</t>
   </si>
@@ -75,30 +75,18 @@
     <t>B</t>
   </si>
   <si>
-    <t>bug_link</t>
-  </si>
-  <si>
-    <t>bug链接[%s]</t>
-  </si>
-  <si>
-    <t>bug_page</t>
+    <t>myzone_link</t>
+  </si>
+  <si>
+    <t>我的地盘链接</t>
+  </si>
+  <si>
+    <t>main_page</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>//a[text()=%s]</t>
-  </si>
-  <si>
-    <t>myzone_link</t>
-  </si>
-  <si>
-    <t>我的地盘链接</t>
-  </si>
-  <si>
-    <t>main_page</t>
-  </si>
-  <si>
     <t>//a[@text='我的地盘']</t>
   </si>
   <si>
@@ -109,6 +97,15 @@
   </si>
   <si>
     <t>userNav</t>
+  </si>
+  <si>
+    <t>quit_button</t>
+  </si>
+  <si>
+    <t>退出按钮</t>
+  </si>
+  <si>
+    <t>//a[@href='/zentao/www/index.php?m=user&amp;f=logout']</t>
   </si>
   <si>
     <t>firstpage_link</t>
@@ -754,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,9 +759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,13 +1080,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.5357142857143" customWidth="1"/>
     <col min="2" max="3" width="22.3125" customWidth="1"/>
@@ -1181,32 +1175,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1218,19 +1192,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="22.3125" customWidth="1"/>
     <col min="3" max="3" width="26.4821428571429" customWidth="1"/>
     <col min="4" max="4" width="19.6339285714286" customWidth="1"/>
-    <col min="5" max="5" width="22.3214285714286" customWidth="1"/>
+    <col min="5" max="5" width="53.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="10.5625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1256,19 +1230,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -1276,21 +1250,41 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1341,19 +1335,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -1361,19 +1355,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9140" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="9140"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>account</t>
+    <t>accoun</t>
   </si>
   <si>
     <t>password_inputbox</t>
@@ -1082,8 +1082,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1194,8 +1194,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9140"/>
+    <workbookView windowWidth="25600" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>accoun</t>
+    <t>account</t>
   </si>
   <si>
     <t>password_inputbox</t>
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,7 +150,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +179,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -172,15 +219,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,13 +259,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,63 +272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,14 +283,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,19 +301,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,37 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,109 +427,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +508,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,7 +517,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,30 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -568,21 +574,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,24 +592,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,31 +143,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,6 +165,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -187,6 +217,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -195,6 +263,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -203,84 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,67 +295,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,115 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,51 +518,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +551,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,148 +606,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,6 +144,65 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,21 +216,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -179,31 +248,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,70 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +517,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -548,11 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,17 +576,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,145 +606,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
